--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87394</v>
+        <v>15806</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Novaes</t>
+          <t>Evelyn Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>5634.67</v>
+        <v>11475.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17717</v>
+        <v>26391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beatriz Moreira</t>
+          <t>Carlos Eduardo Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>6204.58</v>
+        <v>9757.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17117</v>
+        <v>83821</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rebeca Rocha</t>
+          <t>Samuel Moraes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>2784.86</v>
+        <v>4873.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39200</v>
+        <v>333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marina Gonçalves</t>
+          <t>João Vitor Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>6814</v>
+        <v>5230.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37532</v>
+        <v>72808</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Noah Pires</t>
+          <t>João Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>12085.82</v>
+        <v>11142.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18737</v>
+        <v>28020</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diego Barbosa</t>
+          <t>Natália Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>6468.52</v>
+        <v>2642.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85427</v>
+        <v>40031</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriela Monteiro</t>
+          <t>Vinicius Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>9566.09</v>
+        <v>4518.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4347</v>
+        <v>5362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabella Jesus</t>
+          <t>Maria Sophia Carvalho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>4057.58</v>
+        <v>6541.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19511</v>
+        <v>87606</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luigi Duarte</t>
+          <t>Danilo Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>4619.27</v>
+        <v>8840.940000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61261</v>
+        <v>84021</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raquel Freitas</t>
+          <t>Nicole Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>12415.01</v>
+        <v>11013.61</v>
       </c>
     </row>
   </sheetData>
